--- a/build/classes/excel/excel.xlsx
+++ b/build/classes/excel/excel.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="48">
   <si>
     <t xml:space="preserve">  ชื่อลูกค้า / Customers:</t>
   </si>
@@ -187,6 +187,9 @@
   </si>
   <si>
     <t>สำเนา</t>
+  </si>
+  <si>
+    <t>เกกีงาม 1</t>
   </si>
 </sst>
 </file>
@@ -1432,16 +1435,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="8" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="3.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="1.125" style="1" customWidth="1"/>
-    <col min="9" max="10" width="15.125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="8.0" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" style="1" width="5.25" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" style="1" width="3.5" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" style="1" width="9.125" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" style="1" width="9.5" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" style="1" width="15.625" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" style="1" width="11.375" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" style="1" width="1.125" collapsed="false"/>
+    <col min="9" max="10" customWidth="true" style="1" width="15.125" collapsed="false"/>
+    <col min="11" max="16384" style="1" width="9.0" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="16" customFormat="1" ht="27" customHeight="1">
@@ -1479,7 +1482,7 @@
     </row>
     <row r="4" spans="1:10" s="16" customFormat="1" ht="18.75">
       <c r="A4" s="25" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -2153,16 +2156,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="8" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="3.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="1.125" style="1" customWidth="1"/>
-    <col min="9" max="10" width="15.125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="8.0" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" style="1" width="5.25" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" style="1" width="3.5" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" style="1" width="9.125" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" style="1" width="9.5" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" style="1" width="15.625" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" style="1" width="11.375" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" style="1" width="1.125" collapsed="false"/>
+    <col min="9" max="10" customWidth="true" style="1" width="15.125" collapsed="false"/>
+    <col min="11" max="16384" style="1" width="9.0" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="16" customFormat="1" ht="27" customHeight="1">
